--- a/JavaFile/excel/cart2.xlsx
+++ b/JavaFile/excel/cart2.xlsx
@@ -65,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -104,6 +104,17 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
